--- a/Data/EC/NIT-9004625119.xlsx
+++ b/Data/EC/NIT-9004625119.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7009BCF-2EB5-4BDF-8B81-CDEA80D7D7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A9F240-24D3-4B0B-A29A-B7E21A003BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C076E572-3381-4A65-BB30-7666A758464B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BEF08C56-D78F-48A5-AE53-02467602AA2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="90">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,241 +65,214 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047403042</t>
+  </si>
+  <si>
+    <t>ALVARO DE JESUS LOPEZ TINOCO</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>78750679</t>
+  </si>
+  <si>
+    <t>JHON ANDERSON MARTINEZ RESTREPO</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1034290865</t>
+  </si>
+  <si>
+    <t>JOSE ALEJANDRO RAMELLA FRAGOZO</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>79993174</t>
+  </si>
+  <si>
+    <t>DIEGO EDISSON CARDOZO GOMEZ</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>1143405418</t>
   </si>
   <si>
     <t>JESENIA DEL PILAR PRETELT GALVAN</t>
   </si>
   <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
     <t>2302</t>
   </si>
   <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>79993174</t>
-  </si>
-  <si>
-    <t>DIEGO EDISSON CARDOZO GOMEZ</t>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
   </si>
   <si>
     <t>2306</t>
   </si>
   <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>1034290865</t>
-  </si>
-  <si>
-    <t>JOSE ALEJANDRO RAMELLA FRAGOZO</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>80172648</t>
+  </si>
+  <si>
+    <t>OSCAR FABIAN GOYENECHE MOYANO</t>
   </si>
   <si>
     <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>78750679</t>
-  </si>
-  <si>
-    <t>JHON ANDERSON MARTINEZ RESTREPO</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1047403042</t>
-  </si>
-  <si>
-    <t>ALVARO DE JESUS LOPEZ TINOCO</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>80172648</t>
-  </si>
-  <si>
-    <t>OSCAR FABIAN GOYENECHE MOYANO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -398,7 +371,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -411,9 +386,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -613,23 +586,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,10 +630,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -713,7 +686,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C634E5A6-3130-0777-0000-F7B0EFE94DC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACC0571-1A1B-A955-7261-4D17AA4EE33B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1064,8 +1037,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589EC6FC-FCC1-4E45-9744-9E2DBB86EDE8}">
-  <dimension ref="B2:J222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6A7A0D-E02B-4241-82FC-AF1402BE63E9}">
+  <dimension ref="B2:J190"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1089,7 +1062,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1134,7 +1107,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1166,12 +1139,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>22722460</v>
+        <v>19975184</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1182,17 +1155,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C13" s="5">
         <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F13" s="5">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1219,13 +1192,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1242,10 +1215,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>152147</v>
+        <v>101479</v>
       </c>
       <c r="G16" s="18">
-        <v>5367469</v>
+        <v>2962791</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1256,19 +1229,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>152147</v>
+        <v>70518</v>
       </c>
       <c r="G17" s="18">
-        <v>5367469</v>
+        <v>1762958</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1285,13 +1258,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>152147</v>
+        <v>101479</v>
       </c>
       <c r="G18" s="18">
-        <v>5367469</v>
+        <v>2962791</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1302,19 +1275,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>81145</v>
+        <v>70518</v>
       </c>
       <c r="G19" s="18">
-        <v>5367469</v>
+        <v>1762958</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1325,19 +1298,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="18">
-        <v>167662</v>
+        <v>101479</v>
       </c>
       <c r="G20" s="18">
-        <v>4191545</v>
+        <v>2962791</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1348,19 +1321,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>167662</v>
+        <v>119588</v>
       </c>
       <c r="G21" s="18">
-        <v>4191545</v>
+        <v>2989699</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1371,19 +1344,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>167662</v>
+        <v>70518</v>
       </c>
       <c r="G22" s="18">
-        <v>4191545</v>
+        <v>1762958</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1394,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>167662</v>
+        <v>101479</v>
       </c>
       <c r="G23" s="18">
-        <v>4191545</v>
+        <v>2962791</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1417,19 +1390,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>167662</v>
+        <v>119588</v>
       </c>
       <c r="G24" s="18">
-        <v>4191545</v>
+        <v>2989699</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1440,19 +1413,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>167662</v>
+        <v>70518</v>
       </c>
       <c r="G25" s="18">
-        <v>4191545</v>
+        <v>1762958</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1463,19 +1436,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>167662</v>
+        <v>101479</v>
       </c>
       <c r="G26" s="18">
-        <v>4191545</v>
+        <v>2962791</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1486,19 +1459,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>167662</v>
+        <v>119588</v>
       </c>
       <c r="G27" s="18">
-        <v>4191545</v>
+        <v>2989699</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1509,19 +1482,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>167662</v>
+        <v>70518</v>
       </c>
       <c r="G28" s="18">
-        <v>4191545</v>
+        <v>1762958</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1532,19 +1505,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>167662</v>
+        <v>101479</v>
       </c>
       <c r="G29" s="18">
-        <v>4191545</v>
+        <v>2962791</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1555,19 +1528,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>167662</v>
+        <v>119588</v>
       </c>
       <c r="G30" s="18">
-        <v>4191545</v>
+        <v>2989699</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1578,19 +1551,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
-        <v>167662</v>
+        <v>70518</v>
       </c>
       <c r="G31" s="18">
-        <v>4191545</v>
+        <v>1762958</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1601,19 +1574,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>167662</v>
+        <v>101479</v>
       </c>
       <c r="G32" s="18">
-        <v>4191545</v>
+        <v>2962791</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1624,19 +1597,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>167662</v>
+        <v>119588</v>
       </c>
       <c r="G33" s="18">
-        <v>4191545</v>
+        <v>2989699</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1647,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
-        <v>167662</v>
+        <v>70518</v>
       </c>
       <c r="G34" s="18">
-        <v>4191545</v>
+        <v>1762958</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1670,19 +1643,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
-        <v>167662</v>
+        <v>119588</v>
       </c>
       <c r="G35" s="18">
-        <v>4191545</v>
+        <v>2989699</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1693,19 +1666,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
-        <v>167662</v>
+        <v>70518</v>
       </c>
       <c r="G36" s="18">
-        <v>4191545</v>
+        <v>1762958</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1716,19 +1689,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
-        <v>167662</v>
+        <v>119588</v>
       </c>
       <c r="G37" s="18">
-        <v>4191545</v>
+        <v>2989699</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1739,19 +1712,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>167662</v>
+        <v>70518</v>
       </c>
       <c r="G38" s="18">
-        <v>4191545</v>
+        <v>1762958</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1762,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
-        <v>167662</v>
+        <v>119588</v>
       </c>
       <c r="G39" s="18">
-        <v>4191545</v>
+        <v>2989699</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1785,19 +1758,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>167662</v>
+        <v>70518</v>
       </c>
       <c r="G40" s="18">
-        <v>4191545</v>
+        <v>1762958</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1808,13 +1781,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
         <v>167662</v>
@@ -1831,19 +1804,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
-        <v>167662</v>
+        <v>119588</v>
       </c>
       <c r="G42" s="18">
-        <v>4191545</v>
+        <v>2989699</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1854,19 +1827,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
-        <v>167662</v>
+        <v>70518</v>
       </c>
       <c r="G43" s="18">
-        <v>4191545</v>
+        <v>1762958</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1877,13 +1850,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F44" s="18">
         <v>167662</v>
@@ -1900,19 +1873,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F45" s="18">
-        <v>167662</v>
+        <v>119588</v>
       </c>
       <c r="G45" s="18">
-        <v>4191545</v>
+        <v>2989699</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1923,19 +1896,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
-        <v>167662</v>
+        <v>70518</v>
       </c>
       <c r="G46" s="18">
-        <v>4191545</v>
+        <v>1762958</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1946,13 +1919,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
         <v>167662</v>
@@ -1969,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
-        <v>167662</v>
+        <v>119588</v>
       </c>
       <c r="G48" s="18">
-        <v>4191545</v>
+        <v>2989699</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1992,19 +1965,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
-        <v>167662</v>
+        <v>70518</v>
       </c>
       <c r="G49" s="18">
-        <v>4191545</v>
+        <v>1762958</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2015,13 +1988,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
         <v>167662</v>
@@ -2038,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
-        <v>167662</v>
+        <v>119588</v>
       </c>
       <c r="G51" s="18">
-        <v>4191545</v>
+        <v>2989699</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2061,19 +2034,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>167662</v>
+        <v>70518</v>
       </c>
       <c r="G52" s="18">
-        <v>4191545</v>
+        <v>1762958</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2084,13 +2057,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
         <v>167662</v>
@@ -2107,13 +2080,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
         <v>119588</v>
@@ -2130,19 +2103,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G55" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2153,19 +2126,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F56" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G56" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2176,13 +2149,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F57" s="18">
         <v>119588</v>
@@ -2199,19 +2172,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F58" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G58" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2222,19 +2195,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G59" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2245,13 +2218,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F60" s="18">
         <v>119588</v>
@@ -2268,19 +2241,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F61" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G61" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2291,19 +2264,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F62" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G62" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2314,13 +2287,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F63" s="18">
         <v>119588</v>
@@ -2337,19 +2310,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F64" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G64" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2360,19 +2333,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F65" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G65" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2383,13 +2356,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F66" s="18">
         <v>119588</v>
@@ -2406,19 +2379,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F67" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G67" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2429,19 +2402,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F68" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G68" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2452,13 +2425,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F69" s="18">
         <v>119588</v>
@@ -2475,19 +2448,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F70" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G70" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2498,19 +2471,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="F71" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G71" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2521,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F72" s="18">
         <v>119588</v>
@@ -2544,19 +2517,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F73" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G73" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2567,19 +2540,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F74" s="18">
-        <v>119588</v>
+        <v>120894</v>
       </c>
       <c r="G74" s="18">
-        <v>2989699</v>
+        <v>2962791</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2590,19 +2563,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="F75" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G75" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2613,13 +2586,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F76" s="18">
         <v>119588</v>
@@ -2636,19 +2609,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F77" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G77" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2659,19 +2632,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F78" s="18">
-        <v>119588</v>
+        <v>120894</v>
       </c>
       <c r="G78" s="18">
-        <v>2989699</v>
+        <v>2962791</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2682,19 +2655,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F79" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G79" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2705,13 +2678,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F80" s="18">
         <v>119588</v>
@@ -2728,19 +2701,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F81" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G81" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2751,19 +2724,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F82" s="18">
-        <v>119588</v>
+        <v>120894</v>
       </c>
       <c r="G82" s="18">
-        <v>2989699</v>
+        <v>2962791</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2774,19 +2747,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F83" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G83" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2797,13 +2770,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F84" s="18">
         <v>119588</v>
@@ -2820,19 +2793,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F85" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G85" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2843,19 +2816,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F86" s="18">
-        <v>119588</v>
+        <v>120894</v>
       </c>
       <c r="G86" s="18">
-        <v>2989699</v>
+        <v>2962791</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2866,19 +2839,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F87" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G87" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2889,13 +2862,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F88" s="18">
         <v>119588</v>
@@ -2912,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F89" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G89" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2935,19 +2908,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F90" s="18">
-        <v>119588</v>
+        <v>120894</v>
       </c>
       <c r="G90" s="18">
-        <v>2989699</v>
+        <v>2962791</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2958,19 +2931,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F91" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G91" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2981,13 +2954,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F92" s="18">
         <v>119588</v>
@@ -3004,19 +2977,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F93" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G93" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3027,19 +3000,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F94" s="18">
-        <v>119588</v>
+        <v>120894</v>
       </c>
       <c r="G94" s="18">
-        <v>2989699</v>
+        <v>2962791</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3050,19 +3023,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F95" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G95" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3073,13 +3046,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F96" s="18">
         <v>119588</v>
@@ -3096,19 +3069,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F97" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G97" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3119,19 +3092,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F98" s="18">
-        <v>119588</v>
+        <v>120894</v>
       </c>
       <c r="G98" s="18">
-        <v>2989699</v>
+        <v>2962791</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3142,19 +3115,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F99" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G99" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3165,13 +3138,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F100" s="18">
         <v>119588</v>
@@ -3188,19 +3161,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F101" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G101" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3211,19 +3184,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F102" s="18">
-        <v>119588</v>
+        <v>120894</v>
       </c>
       <c r="G102" s="18">
-        <v>2989699</v>
+        <v>2962791</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3234,19 +3207,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F103" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G103" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3257,13 +3230,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F104" s="18">
         <v>119588</v>
@@ -3280,19 +3253,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F105" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G105" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3303,19 +3276,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F106" s="18">
-        <v>119588</v>
+        <v>120894</v>
       </c>
       <c r="G106" s="18">
-        <v>2989699</v>
+        <v>2962791</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3326,19 +3299,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F107" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G107" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3349,13 +3322,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="F108" s="18">
         <v>119588</v>
@@ -3372,19 +3345,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D109" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="F109" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G109" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3395,19 +3368,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D110" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="F110" s="18">
-        <v>119588</v>
+        <v>120894</v>
       </c>
       <c r="G110" s="18">
-        <v>2989699</v>
+        <v>2962791</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3418,19 +3391,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D111" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E111" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="F111" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G111" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3441,13 +3414,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D112" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="F112" s="18">
         <v>119588</v>
@@ -3464,19 +3437,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E113" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="F113" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G113" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3487,19 +3460,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E114" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="F114" s="18">
-        <v>119588</v>
+        <v>120894</v>
       </c>
       <c r="G114" s="18">
-        <v>2989699</v>
+        <v>2962791</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3510,19 +3483,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="F115" s="18">
-        <v>119588</v>
+        <v>167662</v>
       </c>
       <c r="G115" s="18">
-        <v>2989699</v>
+        <v>4191545</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3533,13 +3506,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="F116" s="18">
         <v>119588</v>
@@ -3556,19 +3529,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F117" s="18">
-        <v>119588</v>
+        <v>70518</v>
       </c>
       <c r="G117" s="18">
-        <v>2989699</v>
+        <v>1762958</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3579,19 +3552,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
         <v>49</v>
       </c>
       <c r="F118" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G118" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3602,19 +3575,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F119" s="18">
-        <v>70518</v>
+        <v>167662</v>
       </c>
       <c r="G119" s="18">
-        <v>1762958</v>
+        <v>4191545</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3625,19 +3598,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F120" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G120" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3648,13 +3621,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F121" s="18">
         <v>70518</v>
@@ -3671,19 +3644,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F122" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G122" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3694,19 +3667,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F123" s="18">
-        <v>70518</v>
+        <v>167662</v>
       </c>
       <c r="G123" s="18">
-        <v>1762958</v>
+        <v>4191545</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3717,19 +3690,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F124" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G124" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3740,13 +3713,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F125" s="18">
         <v>70518</v>
@@ -3763,19 +3736,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F126" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G126" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3786,19 +3759,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F127" s="18">
-        <v>70518</v>
+        <v>167662</v>
       </c>
       <c r="G127" s="18">
-        <v>1762958</v>
+        <v>4191545</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3809,19 +3782,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F128" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G128" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3832,13 +3805,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F129" s="18">
         <v>70518</v>
@@ -3855,19 +3828,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F130" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G130" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3878,19 +3851,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F131" s="18">
-        <v>70518</v>
+        <v>167662</v>
       </c>
       <c r="G131" s="18">
-        <v>1762958</v>
+        <v>4191545</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3901,19 +3874,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F132" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G132" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3924,13 +3897,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F133" s="18">
         <v>70518</v>
@@ -3947,19 +3920,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F134" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G134" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3970,19 +3943,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F135" s="18">
-        <v>70518</v>
+        <v>81145</v>
       </c>
       <c r="G135" s="18">
-        <v>1762958</v>
+        <v>5367469</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3993,19 +3966,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F136" s="18">
-        <v>70518</v>
+        <v>167662</v>
       </c>
       <c r="G136" s="18">
-        <v>1762958</v>
+        <v>4191545</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4016,19 +3989,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F137" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G137" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4039,13 +4012,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F138" s="18">
         <v>70518</v>
@@ -4062,19 +4035,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F139" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G139" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4085,19 +4058,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F140" s="18">
-        <v>70518</v>
+        <v>152147</v>
       </c>
       <c r="G140" s="18">
-        <v>1762958</v>
+        <v>5367469</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4108,19 +4081,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F141" s="18">
-        <v>70518</v>
+        <v>167662</v>
       </c>
       <c r="G141" s="18">
-        <v>1762958</v>
+        <v>4191545</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4131,19 +4104,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F142" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G142" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4154,13 +4127,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="F143" s="18">
         <v>70518</v>
@@ -4177,19 +4150,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F144" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G144" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4200,19 +4173,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F145" s="18">
-        <v>70518</v>
+        <v>152147</v>
       </c>
       <c r="G145" s="18">
-        <v>1762958</v>
+        <v>5367469</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4223,19 +4196,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="F146" s="18">
-        <v>70518</v>
+        <v>167662</v>
       </c>
       <c r="G146" s="18">
-        <v>1762958</v>
+        <v>4191545</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4246,19 +4219,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F147" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G147" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4269,13 +4242,13 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F148" s="18">
         <v>70518</v>
@@ -4292,19 +4265,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F149" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G149" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4315,19 +4288,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F150" s="18">
-        <v>70518</v>
+        <v>152147</v>
       </c>
       <c r="G150" s="18">
-        <v>1762958</v>
+        <v>5367469</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4338,19 +4311,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F151" s="18">
-        <v>70518</v>
+        <v>167662</v>
       </c>
       <c r="G151" s="18">
-        <v>1762958</v>
+        <v>4191545</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4361,19 +4334,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F152" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G152" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4384,13 +4357,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F153" s="18">
         <v>70518</v>
@@ -4407,19 +4380,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F154" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G154" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4430,19 +4403,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F155" s="18">
-        <v>70518</v>
+        <v>167662</v>
       </c>
       <c r="G155" s="18">
-        <v>1762958</v>
+        <v>4191545</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4453,19 +4426,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F156" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G156" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4476,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F157" s="18">
         <v>70518</v>
@@ -4499,19 +4472,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F158" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G158" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4522,19 +4495,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F159" s="18">
-        <v>70518</v>
+        <v>167662</v>
       </c>
       <c r="G159" s="18">
-        <v>1762958</v>
+        <v>4191545</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4545,19 +4518,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F160" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G160" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4568,13 +4541,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F161" s="18">
         <v>70518</v>
@@ -4591,19 +4564,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F162" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G162" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4614,19 +4587,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F163" s="18">
-        <v>70518</v>
+        <v>167662</v>
       </c>
       <c r="G163" s="18">
-        <v>1762958</v>
+        <v>4191545</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4637,19 +4610,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F164" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G164" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4660,13 +4633,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F165" s="18">
         <v>70518</v>
@@ -4683,19 +4656,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F166" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G166" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4706,19 +4679,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F167" s="18">
-        <v>70518</v>
+        <v>167662</v>
       </c>
       <c r="G167" s="18">
-        <v>1762958</v>
+        <v>4191545</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4729,19 +4702,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F168" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G168" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4752,13 +4725,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F169" s="18">
         <v>70518</v>
@@ -4775,19 +4748,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F170" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G170" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4798,19 +4771,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F171" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G171" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4821,19 +4794,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F172" s="18">
-        <v>70518</v>
+        <v>120894</v>
       </c>
       <c r="G172" s="18">
-        <v>1762958</v>
+        <v>2962791</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4844,19 +4817,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F173" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G173" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4867,19 +4840,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F174" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G174" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -4890,19 +4863,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F175" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G175" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -4913,19 +4886,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F176" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G176" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4936,19 +4909,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F177" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G177" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -4959,19 +4932,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F178" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G178" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -4982,19 +4955,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F179" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G179" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5005,19 +4978,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F180" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G180" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5028,19 +5001,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F181" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G181" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5051,19 +5024,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F182" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G182" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5074,811 +5047,75 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F183" s="18">
-        <v>70518</v>
+        <v>119588</v>
       </c>
       <c r="G183" s="18">
-        <v>1762958</v>
+        <v>2989699</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
       <c r="J183" s="20"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B184" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D184" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F184" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G184" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
-    </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B185" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F185" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G185" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
-    </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B186" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D186" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F186" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G186" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
-    </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B187" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D187" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E187" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F187" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G187" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
-    </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B188" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F188" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G188" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
+      <c r="B184" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D184" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E184" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F184" s="24">
+        <v>443843</v>
+      </c>
+      <c r="G184" s="24">
+        <v>11096075</v>
+      </c>
+      <c r="H184" s="25"/>
+      <c r="I184" s="25"/>
+      <c r="J184" s="26"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B189" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D189" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F189" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G189" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
+      <c r="B189" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C189" s="32"/>
+      <c r="H189" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B190" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D190" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F190" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G190" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
-    </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B191" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D191" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G191" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
-    </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B192" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D192" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E192" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F192" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G192" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
-    </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B193" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C193" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D193" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E193" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F193" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G193" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
-    </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B194" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C194" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D194" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E194" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F194" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G194" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
-    </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B195" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D195" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E195" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F195" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G195" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
-    </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B196" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D196" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E196" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F196" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G196" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
-    </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B197" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D197" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E197" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F197" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G197" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
-    </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B198" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C198" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D198" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E198" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F198" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G198" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B199" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D199" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E199" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F199" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G199" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
-    </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B200" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D200" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F200" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G200" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
-    </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B201" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D201" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E201" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F201" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G201" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
-    </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B202" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D202" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E202" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F202" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G202" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="20"/>
-    </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B203" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D203" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E203" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F203" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G203" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="20"/>
-    </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B204" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D204" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E204" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F204" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G204" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
-    </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B205" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D205" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E205" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F205" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G205" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
-    </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B206" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D206" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F206" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G206" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
-    </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B207" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D207" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E207" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F207" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G207" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
-    </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B208" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D208" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E208" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F208" s="18">
-        <v>120894</v>
-      </c>
-      <c r="G208" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
-    </row>
-    <row r="209" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B209" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D209" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E209" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F209" s="18">
-        <v>101479</v>
-      </c>
-      <c r="G209" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
-    </row>
-    <row r="210" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B210" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D210" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E210" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F210" s="18">
-        <v>101479</v>
-      </c>
-      <c r="G210" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
-    </row>
-    <row r="211" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B211" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C211" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D211" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E211" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F211" s="18">
-        <v>101479</v>
-      </c>
-      <c r="G211" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
-    </row>
-    <row r="212" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B212" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D212" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F212" s="18">
-        <v>101479</v>
-      </c>
-      <c r="G212" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
-    </row>
-    <row r="213" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B213" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D213" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E213" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F213" s="18">
-        <v>101479</v>
-      </c>
-      <c r="G213" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
-    </row>
-    <row r="214" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B214" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D214" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F214" s="18">
-        <v>101479</v>
-      </c>
-      <c r="G214" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
-    </row>
-    <row r="215" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B215" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E215" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F215" s="18">
-        <v>101479</v>
-      </c>
-      <c r="G215" s="18">
-        <v>3022343</v>
-      </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
-    </row>
-    <row r="216" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B216" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C216" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D216" s="23" t="s">
+      <c r="B190" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="E216" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F216" s="24">
-        <v>443843</v>
-      </c>
-      <c r="G216" s="24">
-        <v>11096075</v>
-      </c>
-      <c r="H216" s="25"/>
-      <c r="I216" s="25"/>
-      <c r="J216" s="26"/>
-    </row>
-    <row r="221" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B221" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C221" s="32"/>
-      <c r="H221" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-    </row>
-    <row r="222" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B222" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="C222" s="32"/>
-      <c r="H222" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
+      <c r="C190" s="32"/>
+      <c r="H190" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="H222:J222"/>
-    <mergeCell ref="H221:J221"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="H190:J190"/>
+    <mergeCell ref="H189:J189"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
